--- a/INSERT DATA ACCOUNT.xlsx
+++ b/INSERT DATA ACCOUNT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AssessmentTIMW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846BE92B-4633-4EAE-A35B-D7586474299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE2F958-8617-4D08-9871-4B0A1803BF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2A355C2-1E0C-4B38-B704-D82C488F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="268">
   <si>
     <t>USER NAME</t>
   </si>
@@ -817,6 +817,18 @@
   </si>
   <si>
     <t>TADASHIMIYAMOTO@gmail.com</t>
+  </si>
+  <si>
+    <t>SENIOR GENERAL MANAGER</t>
+  </si>
+  <si>
+    <t>seniorGm</t>
+  </si>
+  <si>
+    <t>seniorgmtimw@gmail.com</t>
+  </si>
+  <si>
+    <t>seniorGMtimw</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1256,7 @@
   <dimension ref="B1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,11 +1286,21 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="3">
+        <v>33333333333</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -3462,6 +3484,7 @@
     <hyperlink ref="E6" r:id="rId2" xr:uid="{07F9CA37-8465-45C5-A0F5-FDD962829609}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{AF4F0312-E8CB-4690-AB69-0C9118961490}"/>
     <hyperlink ref="E3" r:id="rId4" xr:uid="{0C977E07-0CC8-4495-A1CB-F9CDC1408445}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{093C6593-632F-439F-A0DB-AAA04A78B1E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/INSERT DATA ACCOUNT.xlsx
+++ b/INSERT DATA ACCOUNT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AssessmentTIMW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE2F958-8617-4D08-9871-4B0A1803BF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5F521A-DE85-49CD-9B3A-75B9A69FC323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2A355C2-1E0C-4B38-B704-D82C488F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="259">
   <si>
     <t>USER NAME</t>
   </si>
@@ -802,33 +802,6 @@
   </si>
   <si>
     <t>20231007416@gmail.com</t>
-  </si>
-  <si>
-    <t>KAZUNARI HIROSE</t>
-  </si>
-  <si>
-    <t>TADASHI MIYAMOTO</t>
-  </si>
-  <si>
-    <t>KAZUNARIHIROSE@gmail.com</t>
-  </si>
-  <si>
-    <t>TADASHIMIYAMOTO</t>
-  </si>
-  <si>
-    <t>TADASHIMIYAMOTO@gmail.com</t>
-  </si>
-  <si>
-    <t>SENIOR GENERAL MANAGER</t>
-  </si>
-  <si>
-    <t>seniorGm</t>
-  </si>
-  <si>
-    <t>seniorgmtimw@gmail.com</t>
-  </si>
-  <si>
-    <t>seniorGMtimw</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1229,7 @@
   <dimension ref="B1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,55 +1259,25 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="3">
-        <v>33333333333</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>267</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="5">
-        <v>11111111111</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="5">
-        <v>22222222222</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>262</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -3480,11 +3423,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{8103F917-FA8D-417F-ACFB-64713F0D805F}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{07F9CA37-8465-45C5-A0F5-FDD962829609}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{AF4F0312-E8CB-4690-AB69-0C9118961490}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{0C977E07-0CC8-4495-A1CB-F9CDC1408445}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{093C6593-632F-439F-A0DB-AAA04A78B1E3}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{07F9CA37-8465-45C5-A0F5-FDD962829609}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{AF4F0312-E8CB-4690-AB69-0C9118961490}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
